--- a/Data/aearep-538/candidatepackages.xlsx
+++ b/Data/aearep-538/candidatepackages.xlsx
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C2">
         <v>0</v>
